--- a/Models/Prospective_conso/data/Hypotheses_tertiary_BASIC.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_tertiary_BASIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/kv6345_engie_com/Documents/Documents/5-Python/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{3934F245-B57E-4F68-AA7E-4608CAF2E4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{509BA9E0-C21D-4A3C-9D60-EC72982A785F}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{3934F245-B57E-4F68-AA7E-4608CAF2E4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{401102E7-90C8-4DDD-8BCC-B685BB460FE5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>Nom</t>
   </si>
@@ -44,18 +44,12 @@
     <t>Valeur</t>
   </si>
   <si>
-    <t>init_Besoin_surfacique</t>
-  </si>
-  <si>
     <t>init_proportion_besoin_chauffage</t>
   </si>
   <si>
     <t>Energy_source</t>
   </si>
   <si>
-    <t>init_Surface</t>
-  </si>
-  <si>
     <t>init_conso_unitaire_elec</t>
   </si>
   <si>
@@ -110,6 +104,12 @@
     <t>date_fin</t>
   </si>
   <si>
+    <t>init_surface</t>
+  </si>
+  <si>
+    <t>init_energy_need_per_surface</t>
+  </si>
+  <si>
     <t>new_energy</t>
   </si>
   <si>
@@ -117,16 +117,13 @@
   </si>
   <si>
     <t>retrofit_change_total_proportion_surface</t>
-  </si>
-  <si>
-    <t>old_taux_disp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,13 +136,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,10 +210,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -530,11 +520,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -545,7 +535,7 @@
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,56 +543,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>205.31245689655171</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0.65283620689655175</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="B7">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B8">
@@ -620,10 +610,10 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -634,32 +624,32 @@
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B2">
         <v>40726800</v>
@@ -680,9 +670,9 @@
         <v>1404372.11035479</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>210049200</v>
@@ -703,9 +693,9 @@
         <v>7243074.2970804702</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>501552000</v>
@@ -726,9 +716,9 @@
         <v>17294892.814870499</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>67748400</v>
@@ -749,9 +739,9 @@
         <v>2336151.2193730101</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>204120000</v>
@@ -772,9 +762,9 @@
         <v>7038619.1688426603</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>13996800</v>
@@ -795,9 +785,9 @@
         <v>482648.17157778202</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>89326800</v>
@@ -818,9 +808,9 @@
         <v>3080233.81722209</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -849,49 +839,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B53D8C-8207-B84F-8ED5-7A100CED18F8}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2020</v>
       </c>
       <c r="B2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C2">
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2050</v>
       </c>
       <c r="B3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C3">
         <v>0.3</v>
       </c>
     </row>
@@ -909,27 +889,27 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2020</v>
@@ -938,9 +918,9 @@
         <v>2.2499998338550951E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2020</v>
@@ -949,9 +929,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2020</v>
@@ -960,9 +940,9 @@
         <v>0.27019997333706558</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2020</v>
@@ -971,9 +951,9 @@
         <v>3.6199993540286093E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2020</v>
@@ -982,9 +962,9 @@
         <v>0.14190001452771051</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2020</v>
@@ -993,9 +973,9 @@
         <v>0.1023000117098929</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2020</v>
@@ -1004,9 +984,9 @@
         <v>0.4269000085464939</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2020</v>
@@ -1015,9 +995,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2025</v>
@@ -1026,9 +1006,9 @@
         <v>3.6400004093810473E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2025</v>
@@ -1037,9 +1017,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2025</v>
@@ -1048,9 +1028,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2025</v>
@@ -1059,9 +1039,9 @@
         <v>0.17049999514856881</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>2025</v>
@@ -1070,9 +1050,9 @@
         <v>4.1599998032844331E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2025</v>
@@ -1081,9 +1061,9 @@
         <v>0.14800000877245101</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>2025</v>
@@ -1092,9 +1072,9 @@
         <v>0.60349999395232545</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>2025</v>
@@ -1114,10 +1094,10 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
@@ -1131,41 +1111,41 @@
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>2020</v>
@@ -1195,9 +1175,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>2020</v>
@@ -1227,9 +1207,9 @@
         <v>0.72104118463674227</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>2020</v>
@@ -1259,9 +1239,9 @@
         <v>0.56914728682170546</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>2020</v>
@@ -1291,9 +1271,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>2020</v>
@@ -1323,9 +1303,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3">
         <v>2020</v>
@@ -1355,9 +1335,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>2020</v>
@@ -1387,9 +1367,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>2020</v>

--- a/Models/Prospective_conso/data/Hypotheses_tertiary_BASIC.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_tertiary_BASIC.xlsx
@@ -1,32 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/kv6345_engie_com/Documents/Documents/5-Python/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{3934F245-B57E-4F68-AA7E-4608CAF2E4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{401102E7-90C8-4DDD-8BCC-B685BB460FE5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69DD1A2-B034-4B41-8A6F-0B7E8A7AB466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="2" r:id="rId1"/>
     <sheet name="Energy_source" sheetId="1" r:id="rId2"/>
     <sheet name="year" sheetId="5" r:id="rId3"/>
-    <sheet name="Energy_source_year" sheetId="4" r:id="rId4"/>
-    <sheet name="retrofit_Transition" sheetId="3" r:id="rId5"/>
+    <sheet name="retrofit_Transition" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Nom</t>
   </si>
@@ -92,9 +89,6 @@
     <t>retrofit_improvement</t>
   </si>
   <si>
-    <t>new_yearly_repartition_per_Energy_source</t>
-  </si>
-  <si>
     <t>retrofit_change_surface</t>
   </si>
   <si>
@@ -108,12 +102,6 @@
   </si>
   <si>
     <t>init_energy_need_per_surface</t>
-  </si>
-  <si>
-    <t>new_energy</t>
-  </si>
-  <si>
-    <t>new_yearly_surface</t>
   </si>
   <si>
     <t>retrofit_change_total_proportion_surface</t>
@@ -193,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -211,9 +199,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -518,24 +503,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,15 +528,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>205.31245689655171</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -559,43 +544,27 @@
         <v>0.65283620689655175</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
         <v>1</v>
       </c>
     </row>
@@ -609,27 +578,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -644,10 +613,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -670,7 +639,7 @@
         <v>1404372.11035479</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -693,7 +662,7 @@
         <v>7243074.2970804702</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -716,7 +685,7 @@
         <v>17294892.814870499</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -739,7 +708,7 @@
         <v>2336151.2193730101</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -762,7 +731,7 @@
         <v>7038619.1688426603</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -785,7 +754,7 @@
         <v>482648.17157778202</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -808,7 +777,7 @@
         <v>3080233.81722209</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -845,13 +814,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -859,7 +828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2020</v>
       </c>
@@ -867,7 +836,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2050</v>
       </c>
@@ -882,236 +851,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E8E854-1915-BB47-B76A-7292F1B05B72}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2">
-        <v>2.2499998338550951E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2020</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>2020</v>
-      </c>
-      <c r="C4">
-        <v>0.27019997333706558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>2020</v>
-      </c>
-      <c r="C5">
-        <v>3.6199993540286093E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>2020</v>
-      </c>
-      <c r="C6">
-        <v>0.14190001452771051</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>2020</v>
-      </c>
-      <c r="C7">
-        <v>0.1023000117098929</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>2020</v>
-      </c>
-      <c r="C8">
-        <v>0.4269000085464939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>2020</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2025</v>
-      </c>
-      <c r="C10">
-        <v>3.6400004093810473E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2025</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2025</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2025</v>
-      </c>
-      <c r="C13">
-        <v>0.17049999514856881</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2025</v>
-      </c>
-      <c r="C14">
-        <v>4.1599998032844331E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2025</v>
-      </c>
-      <c r="C15">
-        <v>0.14800000877245101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>2025</v>
-      </c>
-      <c r="C16">
-        <v>0.60349999395232545</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>2025</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1143,7 +904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1175,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,7 +968,7 @@
         <v>0.72104118463674227</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,7 +1000,7 @@
         <v>0.56914728682170546</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1335,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1367,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>

--- a/Models/Prospective_conso/data/Hypotheses_tertiary_BASIC.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_tertiary_BASIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/kv6345_engie_com/Documents/Documents/5-Python/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{3934F245-B57E-4F68-AA7E-4608CAF2E4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{401102E7-90C8-4DDD-8BCC-B685BB460FE5}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{3934F245-B57E-4F68-AA7E-4608CAF2E4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{561EA7D9-AB7E-4DC0-874E-13D81DA4ED0A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>Nom</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Valeur</t>
   </si>
   <si>
-    <t>init_proportion_besoin_chauffage</t>
-  </si>
-  <si>
     <t>Energy_source</t>
   </si>
   <si>
@@ -105,15 +102,6 @@
   </si>
   <si>
     <t>init_surface</t>
-  </si>
-  <si>
-    <t>init_energy_need_per_surface</t>
-  </si>
-  <si>
-    <t>new_energy</t>
-  </si>
-  <si>
-    <t>new_yearly_surface</t>
   </si>
   <si>
     <t>retrofit_change_total_proportion_surface</t>
@@ -193,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -211,9 +199,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -518,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,58 +529,26 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
+      <c r="A2" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>205.31245689655171</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>0.65283620689655175</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
+      <c r="A4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
         <v>1</v>
       </c>
     </row>
@@ -609,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,30 +579,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>40726800</v>
@@ -672,7 +625,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>210049200</v>
@@ -695,7 +648,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>501552000</v>
@@ -718,7 +671,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>67748400</v>
@@ -741,7 +694,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>204120000</v>
@@ -764,7 +717,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>13996800</v>
@@ -787,7 +740,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>89326800</v>
@@ -810,7 +763,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -853,10 +806,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -898,18 +851,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>2020</v>
@@ -920,7 +873,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2020</v>
@@ -931,7 +884,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2020</v>
@@ -942,7 +895,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2020</v>
@@ -953,7 +906,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2020</v>
@@ -964,7 +917,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2020</v>
@@ -975,7 +928,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>2020</v>
@@ -986,7 +939,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2020</v>
@@ -997,7 +950,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>2025</v>
@@ -1008,7 +961,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>2025</v>
@@ -1019,7 +972,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>2025</v>
@@ -1030,7 +983,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2025</v>
@@ -1041,7 +994,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>2025</v>
@@ -1052,7 +1005,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>2025</v>
@@ -1063,7 +1016,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>2025</v>
@@ -1074,7 +1027,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>2025</v>
@@ -1113,39 +1066,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>2020</v>
@@ -1177,7 +1130,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>2020</v>
@@ -1209,7 +1162,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>2020</v>
@@ -1241,7 +1194,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>2020</v>
@@ -1273,7 +1226,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>2020</v>
@@ -1305,7 +1258,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>2020</v>
@@ -1337,7 +1290,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>2020</v>
@@ -1369,7 +1322,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <v>2020</v>
